--- a/単体・総合テスト/単・結テスト指示書.xlsx
+++ b/単体・総合テスト/単・結テスト指示書.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70363021-2E81-454F-87DD-6DF84E9EC10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F41DA7-114C-49B9-B6D8-674E8C20CAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16335" yWindow="0" windowWidth="9810" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.ログイン画面" sheetId="17" r:id="rId1"/>
-    <sheet name="1.ホーム画面" sheetId="2" r:id="rId2"/>
+    <sheet name="1.メイン画面" sheetId="2" r:id="rId2"/>
     <sheet name="2.登録画面" sheetId="1" r:id="rId3"/>
     <sheet name="3.登録確認画面" sheetId="4" r:id="rId4"/>
     <sheet name="4.登録完了画面" sheetId="6" r:id="rId5"/>
     <sheet name="5.データベース" sheetId="7" r:id="rId6"/>
-    <sheet name="6.登録一覧画面 " sheetId="9" r:id="rId7"/>
+    <sheet name="6.マイページ画面 " sheetId="9" r:id="rId7"/>
     <sheet name="7.削除画面" sheetId="11" r:id="rId8"/>
     <sheet name="8.削除確認画面" sheetId="15" r:id="rId9"/>
     <sheet name="9.削除完了画面" sheetId="16" r:id="rId10"/>
-    <sheet name="10.更新画面 " sheetId="12" r:id="rId11"/>
-    <sheet name="11.更新確認画面" sheetId="13" r:id="rId12"/>
-    <sheet name="12.更新完了画面" sheetId="14" r:id="rId13"/>
+    <sheet name="10.変更画面 " sheetId="12" r:id="rId11"/>
+    <sheet name="11.変更確認画面" sheetId="13" r:id="rId12"/>
+    <sheet name="12.変更完了画面" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'11.更新確認画面'!$A$1:$K$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'11.変更確認画面'!$A$1:$K$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.登録画面'!$A$1:$K$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3.登録確認画面'!$A$1:$K$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'8.削除確認画面'!$A$1:$K$2</definedName>
@@ -24484,7 +24484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -24700,58 +24700,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -25036,501 +24992,500 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5D05C-A947-412D-8467-707785D53B24}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="90" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="85" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="85" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="89" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="85" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="91" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="91"/>
+    <col min="1" max="1" width="5.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="83" customFormat="1" ht="18">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="18">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="37.5">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="19" t="s">
         <v>1445</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="3" t="s">
         <v>1669</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="3" t="s">
         <v>1670</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="24" t="s">
         <v>1671</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="85" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="37.5">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="19" t="s">
         <v>1446</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="3" t="s">
         <v>1672</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="3" t="s">
         <v>1673</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="24" t="s">
         <v>1674</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="85" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="86"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="19" t="s">
         <v>1447</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="3" t="s">
         <v>1454</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="24" t="s">
         <v>1455</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="85" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="86"/>
-    </row>
-    <row r="5" spans="1:11" s="94" customFormat="1" ht="37.5">
-      <c r="A5" s="84" t="s">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" s="78" customFormat="1" ht="37.5">
+      <c r="A5" s="19" t="s">
         <v>1447</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="85" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="93"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" ht="56.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="19" t="s">
         <v>1448</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="3" t="s">
         <v>1458</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="3" t="s">
         <v>1462</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="85" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="85"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="56.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="19" t="s">
         <v>1449</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="3" t="s">
         <v>1463</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="3" t="s">
         <v>1466</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="85" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="85"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="56.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="19" t="s">
         <v>1450</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="3" t="s">
         <v>1465</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="85" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K8" s="85"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="56.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="19" t="s">
         <v>1451</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="3" t="s">
         <v>1469</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="85" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K9" s="85"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="168.75">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="19" t="s">
         <v>1471</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="25" t="s">
         <v>1470</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="25" t="s">
         <v>1436</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="85" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K10" s="85"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="56.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="19" t="s">
         <v>1472</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="85" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K11" s="85"/>
-    </row>
-    <row r="12" spans="1:11" s="96" customFormat="1" ht="75">
-      <c r="A12" s="95" t="s">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" s="80" customFormat="1" ht="75">
+      <c r="A12" s="79" t="s">
         <v>1473</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="85" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="89" t="s">
+      <c r="J12" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="85"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="75">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="25" t="s">
         <v>1512</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="25" t="s">
         <v>1511</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="85" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="89" t="s">
+      <c r="J13" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K13" s="85"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="I14" s="85"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="85"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="I15" s="85"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="85"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="I16" s="85"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="85"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="11:11">
-      <c r="K17" s="85"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="11:11">
-      <c r="K18" s="85"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="11:11">
-      <c r="K19" s="85"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="11:11">
-      <c r="K20" s="85"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="11:11">
-      <c r="K21" s="85"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="11:11">
-      <c r="K22" s="85"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="11:11">
-      <c r="K23" s="85"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="11:11">
-      <c r="K24" s="85"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="11:11">
-      <c r="K25" s="85"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="11:11">
-      <c r="K26" s="85"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="11:11">
-      <c r="K27" s="85"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="11:11">
-      <c r="K28" s="85"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="11:11">
-      <c r="K29" s="85"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="11:11">
-      <c r="K30" s="85"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="11:11">
-      <c r="K31" s="85"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="11:11">
-      <c r="K32" s="85"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="11:11">
-      <c r="K33" s="85"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="11:11">
-      <c r="K34" s="85"/>
+      <c r="K34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -33697,7 +33652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC6A80-9B5E-4681-998F-1D8FE59D4B12}">
   <dimension ref="A1:K658"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/単体・総合テスト/単・結テスト指示書.xlsx
+++ b/単体・総合テスト/単・結テスト指示書.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F41DA7-114C-49B9-B6D8-674E8C20CAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8B26D-DE48-4470-9542-A46D5E85C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0.ログイン画面" sheetId="17" r:id="rId1"/>
+    <sheet name="単・結テスト" sheetId="17" r:id="rId1"/>
     <sheet name="1.メイン画面" sheetId="2" r:id="rId2"/>
     <sheet name="2.登録画面" sheetId="1" r:id="rId3"/>
     <sheet name="3.登録確認画面" sheetId="4" r:id="rId4"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="1678">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -20541,278 +20541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面のナビゲーションバーの下を見る</t>
-    <rPh sb="17" eb="18">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面のナビゲーションバーの下を確認</t>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナビゲーションバーの下に「ログイン画面」と表示されている</t>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央左側にある1番上の項目を見る</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央左側の上から２番目の項目を見る</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一番上の項目はメールアドレスと記載されている</t>
-    <rPh sb="0" eb="3">
-      <t>イチバンウエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央左側にある1番上の項目を確認</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上から２番目の項目はパスワードと記載されている</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央左側の上から２番目の項目を確認</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央の1番上の左の項目と右側にある欄を見る</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ミギガワランミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央の2番目の左の項目と右側にある欄を見る</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央の2番目の左の項目と右側にある欄を確認</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央の1番上の左の項目と右側にある欄を確認</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ミギガワランミ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央の2つの項目の下にあるボタンを見る</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央の2つの項目の下にに「ログイン」のボタンが表示されている</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面中央の2つの項目の下にあるボタンを確認</t>
-    <rPh sb="6" eb="8">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスの右の入力枠に任意の文字を101文字以上入力し、Enterを押す</t>
-    <rPh sb="14" eb="16">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0-9</t>
   </si>
   <si>
@@ -20820,36 +20548,6 @@
   </si>
   <si>
     <t>0-11</t>
-  </si>
-  <si>
-    <t>データベースの情報どおりメールアドレスとパスワードが入力されている</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスとパスワードが入力されているのを確認し、「ログイン」ボタンを押す</t>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOPページに移行する</t>
-    <rPh sb="7" eb="9">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>管理者権限でホーム画面へ移行</t>
@@ -21232,59 +20930,6 @@
   </si>
   <si>
     <t>0-12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ログイン画面が表示されている
-2.XAMPPでApacheとMySQLを起動させphpMyadminでテーブルの「account_data 」を表示している</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーが発生したためログイン情報を取得できません。とエラーが出る</t>
-    <rPh sb="30" eb="31">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール欄に「＠＠＠」パスワード欄に「hana]と入力し、「ログイン」ボタンを押す</t>
-    <rPh sb="3" eb="4">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account_dataを見て登録されてないアカウント情報を入力し、「ログイン」ボタンを押す</t>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -24268,29 +23913,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面の中央の上を見る</t>
-    <rPh sb="7" eb="9">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大きくロゴの「WHO’S　ToDo　List？」と記載ある</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面の中央の上を確認</t>
     <rPh sb="7" eb="9">
       <t>チュウオウ</t>
@@ -24300,6 +23922,374 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真ん中にメールアドレスと薄く表示された入力欄がある</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真ん中にロゴの下を見る</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真ん中にメールアドレス入力欄の下を見る</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真ん中にパスワードと薄く表示された入力欄がある</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録されていないメールアドレスとパスワードを入力しログインすると「エラーが発生したためログイン情報を取得できません。」と表示される</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysqlを確認し、DBのuser_dataを開いておく</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysqlのデータを見ながら登録されていないメールアドレスとパスワードを入力し、ログインボタンを押す</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysqlのデータを見ながら登録されてるメールアドレスとパスワードを入力し、ログインボタンを押す</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインページに移行する</t>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面の中央の下を確認</t>
+    <rPh sb="7" eb="9">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/main.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なアクセスですと赤いエラーメッセージがログイン画面上部に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist_confirm.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete_confirm.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update_confirm.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/mypage.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン済み</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上のMy pageを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My pageへ移行</t>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上のLogoutを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面へ移行</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -24992,8 +24982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5D05C-A947-412D-8467-707785D53B24}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -25003,7 +24993,7 @@
     <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
@@ -25057,13 +25047,13 @@
         <v>1453</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1669</v>
+        <v>1645</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1670</v>
+        <v>1646</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>1671</v>
+        <v>1647</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>241</v>
@@ -25072,9 +25062,7 @@
       <c r="I2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J2" s="8"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="37.5">
@@ -25088,13 +25076,13 @@
         <v>1453</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1672</v>
+        <v>1650</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1673</v>
+        <v>1649</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1674</v>
+        <v>1648</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>241</v>
@@ -25103,9 +25091,7 @@
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
@@ -25119,13 +25105,13 @@
         <v>1453</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1454</v>
+        <v>1651</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1456</v>
+        <v>1652</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1455</v>
+        <v>1658</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>241</v>
@@ -25134,12 +25120,10 @@
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="78" customFormat="1" ht="37.5">
+    <row r="5" spans="1:11" s="78" customFormat="1" ht="93.75">
       <c r="A5" s="19" t="s">
         <v>1447</v>
       </c>
@@ -25147,17 +25131,15 @@
         <v>1452</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1453</v>
+        <v>1654</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1457</v>
+        <v>1655</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1460</v>
-      </c>
+        <v>1653</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
@@ -25165,12 +25147,10 @@
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="77"/>
     </row>
-    <row r="6" spans="1:11" ht="56.25">
+    <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="19" t="s">
         <v>1448</v>
       </c>
@@ -25178,16 +25158,13 @@
         <v>1452</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1453</v>
+        <v>1654</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1458</v>
+        <v>1656</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1462</v>
+        <v>1657</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>241</v>
@@ -25196,12 +25173,10 @@
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="56.25">
+    <row r="7" spans="1:11" ht="75">
       <c r="A7" s="19" t="s">
         <v>1449</v>
       </c>
@@ -25209,16 +25184,16 @@
         <v>1452</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1453</v>
+        <v>1659</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1463</v>
+        <v>1660</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>470</v>
+        <v>1661</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1466</v>
+        <v>1660</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>241</v>
@@ -25227,12 +25202,10 @@
       <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="56.25">
+    <row r="8" spans="1:11" ht="75">
       <c r="A8" s="19" t="s">
         <v>1450</v>
       </c>
@@ -25240,16 +25213,16 @@
         <v>1452</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1453</v>
+        <v>1659</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1464</v>
+        <v>1662</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>468</v>
+        <v>1661</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1465</v>
+        <v>1662</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>241</v>
@@ -25258,12 +25231,10 @@
       <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="56.25">
+    <row r="9" spans="1:11" ht="93.75">
       <c r="A9" s="19" t="s">
         <v>1451</v>
       </c>
@@ -25271,16 +25242,16 @@
         <v>1452</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1453</v>
+        <v>1659</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1467</v>
+        <v>1663</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1468</v>
+        <v>1661</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1469</v>
+        <v>1663</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>241</v>
@@ -25289,29 +25260,27 @@
       <c r="I9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="168.75">
+    <row r="10" spans="1:11" ht="93.75">
       <c r="A10" s="19" t="s">
-        <v>1471</v>
+        <v>1454</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>1470</v>
+        <v>1659</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1664</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>1436</v>
+        <v>1661</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1664</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>241</v>
@@ -25320,29 +25289,27 @@
       <c r="I10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="56.25">
+    <row r="11" spans="1:11" ht="75">
       <c r="A11" s="19" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>347</v>
+        <v>1659</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1665</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>362</v>
+        <v>1661</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1665</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>241</v>
@@ -25351,29 +25318,27 @@
       <c r="I11" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" s="80" customFormat="1" ht="75">
+    <row r="12" spans="1:11" s="80" customFormat="1" ht="93.75">
       <c r="A12" s="79" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1474</v>
+        <v>1659</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>1476</v>
+        <v>1666</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1661</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1475</v>
+        <v>1666</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>241</v>
@@ -25382,29 +25347,27 @@
       <c r="I12" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="75">
+    <row r="13" spans="1:11" ht="93.75">
       <c r="A13" s="19" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>1512</v>
+        <v>1659</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1667</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>1511</v>
+        <v>1661</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1667</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>241</v>
@@ -25413,72 +25376,182 @@
       <c r="I13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="I14" s="4"/>
+    <row r="14" spans="1:11" ht="75">
+      <c r="B14" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="I15" s="4"/>
+    <row r="15" spans="1:11" ht="93.75">
+      <c r="B15" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="I16" s="4"/>
+    <row r="16" spans="1:11" ht="93.75">
+      <c r="B16" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="11:11">
+    <row r="17" spans="2:11" ht="75">
+      <c r="B17" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="11:11">
+    <row r="18" spans="2:11">
+      <c r="B18" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1674</v>
+      </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="2:11">
+      <c r="C19" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1676</v>
+      </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="2:11">
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="2:11">
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="11:11">
+    <row r="22" spans="2:11">
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="11:11">
+    <row r="23" spans="2:11">
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="11:11">
+    <row r="24" spans="2:11">
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="11:11">
+    <row r="25" spans="2:11">
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="11:11">
+    <row r="26" spans="2:11">
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="11:11">
+    <row r="27" spans="2:11">
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="11:11">
+    <row r="28" spans="2:11">
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="11:11">
+    <row r="29" spans="2:11">
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="11:11">
+    <row r="30" spans="2:11">
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="11:11">
+    <row r="31" spans="2:11">
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="11:11">
+    <row r="32" spans="2:11">
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="11:11">
@@ -30676,22 +30749,22 @@
     </row>
     <row r="90" spans="1:11" s="37" customFormat="1" ht="56.25">
       <c r="A90" s="34" t="s">
-        <v>1504</v>
+        <v>1484</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>1505</v>
+        <v>1485</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>1506</v>
+        <v>1486</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="F90" s="35" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="G90" s="31" t="s">
         <v>241</v>
@@ -33652,7 +33725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC6A80-9B5E-4681-998F-1D8FE59D4B12}">
   <dimension ref="A1:K658"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -36029,22 +36102,22 @@
     </row>
     <row r="6" spans="1:11" s="30" customFormat="1" ht="75">
       <c r="A6" s="26" t="s">
-        <v>1482</v>
+        <v>1462</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>1478</v>
+        <v>1458</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>1479</v>
+        <v>1459</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>1481</v>
+        <v>1461</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>241</v>
@@ -36064,22 +36137,22 @@
     </row>
     <row r="7" spans="1:11" s="30" customFormat="1" ht="75">
       <c r="A7" s="26" t="s">
-        <v>1488</v>
+        <v>1468</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>1487</v>
+        <v>1467</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>1484</v>
+        <v>1464</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>241</v>
@@ -36138,7 +36211,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="C14" s="2" t="s">
-        <v>1668</v>
+        <v>1644</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -39265,22 +39338,22 @@
     </row>
     <row r="92" spans="1:11" s="37" customFormat="1" ht="37.5">
       <c r="A92" s="34" t="s">
-        <v>1489</v>
+        <v>1469</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>1490</v>
+        <v>1470</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>1491</v>
+        <v>1471</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>1493</v>
+        <v>1473</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="F92" s="35" t="s">
-        <v>1494</v>
+        <v>1474</v>
       </c>
       <c r="G92" s="31" t="s">
         <v>241</v>
@@ -47652,22 +47725,22 @@
     </row>
     <row r="32" spans="1:11" s="37" customFormat="1" ht="37.5">
       <c r="A32" s="34" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>1497</v>
+        <v>1477</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1498</v>
+        <v>1478</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>1499</v>
+        <v>1479</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>241</v>
@@ -47685,22 +47758,22 @@
     </row>
     <row r="33" spans="1:11" ht="75">
       <c r="A33" s="19" t="s">
-        <v>1517</v>
+        <v>1493</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1513</v>
+        <v>1489</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1514</v>
+        <v>1490</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1515</v>
+        <v>1491</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1516</v>
+        <v>1492</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>241</v>
@@ -47718,7 +47791,7 @@
     </row>
     <row r="34" spans="1:11" ht="37.5">
       <c r="A34" s="19" t="s">
-        <v>1610</v>
+        <v>1586</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>727</v>
@@ -47727,13 +47800,13 @@
         <v>730</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1518</v>
+        <v>1494</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1519</v>
+        <v>1495</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1550</v>
+        <v>1526</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>241</v>
@@ -47751,7 +47824,7 @@
     </row>
     <row r="35" spans="1:11" ht="37.5">
       <c r="A35" s="19" t="s">
-        <v>1611</v>
+        <v>1587</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>727</v>
@@ -47760,13 +47833,13 @@
         <v>730</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1520</v>
+        <v>1496</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1521</v>
+        <v>1497</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1551</v>
+        <v>1527</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>241</v>
@@ -47784,7 +47857,7 @@
     </row>
     <row r="36" spans="1:11" ht="37.5">
       <c r="A36" s="19" t="s">
-        <v>1612</v>
+        <v>1588</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>727</v>
@@ -47793,13 +47866,13 @@
         <v>730</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1522</v>
+        <v>1498</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1523</v>
+        <v>1499</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1552</v>
+        <v>1528</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>241</v>
@@ -47817,7 +47890,7 @@
     </row>
     <row r="37" spans="1:11" ht="37.5">
       <c r="A37" s="19" t="s">
-        <v>1613</v>
+        <v>1589</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>727</v>
@@ -47826,13 +47899,13 @@
         <v>730</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1524</v>
+        <v>1500</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1532</v>
+        <v>1508</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1553</v>
+        <v>1529</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>241</v>
@@ -47850,7 +47923,7 @@
     </row>
     <row r="38" spans="1:11" ht="37.5">
       <c r="A38" s="19" t="s">
-        <v>1614</v>
+        <v>1590</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>727</v>
@@ -47859,13 +47932,13 @@
         <v>730</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1525</v>
+        <v>1501</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1526</v>
+        <v>1502</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1554</v>
+        <v>1530</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>241</v>
@@ -47883,7 +47956,7 @@
     </row>
     <row r="39" spans="1:11" ht="37.5">
       <c r="A39" s="19" t="s">
-        <v>1615</v>
+        <v>1591</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>727</v>
@@ -47892,13 +47965,13 @@
         <v>730</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1527</v>
+        <v>1503</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>1531</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1555</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>241</v>
@@ -47916,7 +47989,7 @@
     </row>
     <row r="40" spans="1:11" ht="37.5">
       <c r="A40" s="19" t="s">
-        <v>1616</v>
+        <v>1592</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>727</v>
@@ -47925,13 +47998,13 @@
         <v>730</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1528</v>
+        <v>1504</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1529</v>
+        <v>1505</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1556</v>
+        <v>1532</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>241</v>
@@ -47949,7 +48022,7 @@
     </row>
     <row r="41" spans="1:11" ht="37.5">
       <c r="A41" s="19" t="s">
-        <v>1617</v>
+        <v>1593</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>727</v>
@@ -47958,13 +48031,13 @@
         <v>730</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1530</v>
+        <v>1506</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>1533</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>1557</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>241</v>
@@ -47982,7 +48055,7 @@
     </row>
     <row r="42" spans="1:11" ht="37.5">
       <c r="A42" s="19" t="s">
-        <v>1618</v>
+        <v>1594</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>727</v>
@@ -47991,13 +48064,13 @@
         <v>730</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>1534</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>1558</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>241</v>
@@ -48015,7 +48088,7 @@
     </row>
     <row r="43" spans="1:11" ht="37.5">
       <c r="A43" s="19" t="s">
-        <v>1619</v>
+        <v>1595</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>727</v>
@@ -48024,13 +48097,13 @@
         <v>730</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1536</v>
+        <v>1512</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1537</v>
+        <v>1513</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1559</v>
+        <v>1535</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>241</v>
@@ -48048,7 +48121,7 @@
     </row>
     <row r="44" spans="1:11" ht="37.5">
       <c r="A44" s="19" t="s">
-        <v>1620</v>
+        <v>1596</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>727</v>
@@ -48057,13 +48130,13 @@
         <v>730</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1538</v>
+        <v>1514</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1539</v>
+        <v>1515</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1560</v>
+        <v>1536</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>241</v>
@@ -48081,7 +48154,7 @@
     </row>
     <row r="45" spans="1:11" ht="37.5">
       <c r="A45" s="19" t="s">
-        <v>1621</v>
+        <v>1597</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>727</v>
@@ -48090,13 +48163,13 @@
         <v>730</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1540</v>
+        <v>1516</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1541</v>
+        <v>1517</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1561</v>
+        <v>1537</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>241</v>
@@ -48114,7 +48187,7 @@
     </row>
     <row r="46" spans="1:11" ht="37.5">
       <c r="A46" s="19" t="s">
-        <v>1622</v>
+        <v>1598</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>727</v>
@@ -48123,13 +48196,13 @@
         <v>730</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1542</v>
+        <v>1518</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1543</v>
+        <v>1519</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1562</v>
+        <v>1538</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>241</v>
@@ -48147,7 +48220,7 @@
     </row>
     <row r="47" spans="1:11" ht="37.5">
       <c r="A47" s="19" t="s">
-        <v>1623</v>
+        <v>1599</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>727</v>
@@ -48156,13 +48229,13 @@
         <v>730</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1544</v>
+        <v>1520</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1545</v>
+        <v>1521</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1563</v>
+        <v>1539</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>241</v>
@@ -48180,7 +48253,7 @@
     </row>
     <row r="48" spans="1:11" ht="37.5">
       <c r="A48" s="19" t="s">
-        <v>1624</v>
+        <v>1600</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>727</v>
@@ -48189,13 +48262,13 @@
         <v>730</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1546</v>
+        <v>1522</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1547</v>
+        <v>1523</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1564</v>
+        <v>1540</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>241</v>
@@ -48213,7 +48286,7 @@
     </row>
     <row r="49" spans="1:11" ht="56.25">
       <c r="A49" s="19" t="s">
-        <v>1625</v>
+        <v>1601</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>727</v>
@@ -48222,13 +48295,13 @@
         <v>730</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1548</v>
+        <v>1524</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1549</v>
+        <v>1525</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1548</v>
+        <v>1524</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>241</v>
@@ -48246,22 +48319,22 @@
     </row>
     <row r="50" spans="1:11" ht="75">
       <c r="A50" s="19" t="s">
-        <v>1626</v>
+        <v>1602</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1575</v>
+        <v>1551</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1570</v>
+        <v>1546</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1649</v>
+        <v>1625</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>241</v>
@@ -48279,22 +48352,22 @@
     </row>
     <row r="51" spans="1:11" ht="75">
       <c r="A51" s="19" t="s">
-        <v>1627</v>
+        <v>1603</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1574</v>
+        <v>1550</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1569</v>
+        <v>1545</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1648</v>
+        <v>1624</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>241</v>
@@ -48312,22 +48385,22 @@
     </row>
     <row r="52" spans="1:11" ht="75">
       <c r="A52" s="19" t="s">
-        <v>1628</v>
+        <v>1604</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1573</v>
+        <v>1549</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>1568</v>
+        <v>1544</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>1650</v>
+        <v>1626</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>241</v>
@@ -48345,22 +48418,22 @@
     </row>
     <row r="53" spans="1:11" ht="75">
       <c r="A53" s="19" t="s">
-        <v>1629</v>
+        <v>1605</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1572</v>
+        <v>1548</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1567</v>
+        <v>1543</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1651</v>
+        <v>1627</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>241</v>
@@ -48378,22 +48451,22 @@
     </row>
     <row r="54" spans="1:11" ht="75">
       <c r="A54" s="19" t="s">
-        <v>1630</v>
+        <v>1606</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1577</v>
+        <v>1553</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1566</v>
+        <v>1542</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1652</v>
+        <v>1628</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>241</v>
@@ -48411,22 +48484,22 @@
     </row>
     <row r="55" spans="1:11" ht="75">
       <c r="A55" s="19" t="s">
-        <v>1631</v>
+        <v>1607</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1578</v>
+        <v>1554</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1579</v>
+        <v>1555</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1653</v>
+        <v>1629</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>241</v>
@@ -48444,22 +48517,22 @@
     </row>
     <row r="56" spans="1:11" ht="75">
       <c r="A56" s="19" t="s">
-        <v>1632</v>
+        <v>1608</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1571</v>
+        <v>1547</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1576</v>
+        <v>1552</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>1571</v>
+        <v>1547</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>241</v>
@@ -48477,22 +48550,22 @@
     </row>
     <row r="57" spans="1:11" ht="75">
       <c r="A57" s="19" t="s">
-        <v>1633</v>
+        <v>1609</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1580</v>
+        <v>1556</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1581</v>
+        <v>1557</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1654</v>
+        <v>1630</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>241</v>
@@ -48510,22 +48583,22 @@
     </row>
     <row r="58" spans="1:11" ht="93.75">
       <c r="A58" s="19" t="s">
-        <v>1634</v>
+        <v>1610</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1582</v>
+        <v>1558</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1583</v>
+        <v>1559</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1657</v>
+        <v>1633</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>241</v>
@@ -48543,22 +48616,22 @@
     </row>
     <row r="59" spans="1:11" ht="93.75">
       <c r="A59" s="19" t="s">
-        <v>1635</v>
+        <v>1611</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1584</v>
+        <v>1560</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1585</v>
+        <v>1561</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1656</v>
+        <v>1632</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>241</v>
@@ -48576,22 +48649,22 @@
     </row>
     <row r="60" spans="1:11" ht="93.75">
       <c r="A60" s="19" t="s">
-        <v>1636</v>
+        <v>1612</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1586</v>
+        <v>1562</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1599</v>
+        <v>1575</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1655</v>
+        <v>1631</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>241</v>
@@ -48609,22 +48682,22 @@
     </row>
     <row r="61" spans="1:11" ht="93.75">
       <c r="A61" s="19" t="s">
-        <v>1637</v>
+        <v>1613</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1587</v>
+        <v>1563</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1598</v>
+        <v>1574</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1658</v>
+        <v>1634</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>241</v>
@@ -48642,22 +48715,22 @@
     </row>
     <row r="62" spans="1:11" ht="93.75">
       <c r="A62" s="19" t="s">
-        <v>1638</v>
+        <v>1614</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1591</v>
+        <v>1567</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1597</v>
+        <v>1573</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1659</v>
+        <v>1635</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>241</v>
@@ -48675,22 +48748,22 @@
     </row>
     <row r="63" spans="1:11" ht="93.75">
       <c r="A63" s="19" t="s">
-        <v>1639</v>
+        <v>1615</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1588</v>
+        <v>1564</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1596</v>
+        <v>1572</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1660</v>
+        <v>1636</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>241</v>
@@ -48708,22 +48781,22 @@
     </row>
     <row r="64" spans="1:11" ht="93.75">
       <c r="A64" s="19" t="s">
-        <v>1640</v>
+        <v>1616</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>1565</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>1589</v>
-      </c>
       <c r="E64" s="3" t="s">
-        <v>1595</v>
+        <v>1571</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1661</v>
+        <v>1637</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>241</v>
@@ -48741,22 +48814,22 @@
     </row>
     <row r="65" spans="1:11" ht="93.75">
       <c r="A65" s="19" t="s">
-        <v>1641</v>
+        <v>1617</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1590</v>
+        <v>1566</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1594</v>
+        <v>1570</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>1662</v>
+        <v>1638</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>241</v>
@@ -48774,22 +48847,22 @@
     </row>
     <row r="66" spans="1:11" ht="93.75">
       <c r="A66" s="19" t="s">
-        <v>1642</v>
+        <v>1618</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1592</v>
+        <v>1568</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1593</v>
+        <v>1569</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1663</v>
+        <v>1639</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>241</v>
@@ -48807,22 +48880,22 @@
     </row>
     <row r="67" spans="1:11" ht="75">
       <c r="A67" s="19" t="s">
-        <v>1643</v>
+        <v>1619</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1600</v>
+        <v>1576</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1605</v>
+        <v>1581</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1665</v>
+        <v>1641</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>241</v>
@@ -48840,22 +48913,22 @@
     </row>
     <row r="68" spans="1:11" ht="75">
       <c r="A68" s="19" t="s">
-        <v>1644</v>
+        <v>1620</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1601</v>
+        <v>1577</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>1606</v>
+        <v>1582</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1664</v>
+        <v>1640</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>241</v>
@@ -48873,22 +48946,22 @@
     </row>
     <row r="69" spans="1:11" ht="75">
       <c r="A69" s="19" t="s">
-        <v>1645</v>
+        <v>1621</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1602</v>
+        <v>1578</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1607</v>
+        <v>1583</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1666</v>
+        <v>1642</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>241</v>
@@ -48906,22 +48979,22 @@
     </row>
     <row r="70" spans="1:11" ht="75">
       <c r="A70" s="19" t="s">
-        <v>1646</v>
+        <v>1622</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1603</v>
+        <v>1579</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>1608</v>
+        <v>1584</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1667</v>
+        <v>1643</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>241</v>
@@ -48939,22 +49012,22 @@
     </row>
     <row r="71" spans="1:11" ht="75">
       <c r="A71" s="19" t="s">
-        <v>1647</v>
+        <v>1623</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1604</v>
+        <v>1580</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>1609</v>
+        <v>1585</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>1652</v>
+        <v>1628</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>241</v>
@@ -52186,22 +52259,22 @@
     </row>
     <row r="44" spans="1:11" s="37" customFormat="1" ht="37.5">
       <c r="A44" s="34" t="s">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>1502</v>
+        <v>1482</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>1503</v>
+        <v>1483</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>1503</v>
+        <v>1483</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>241</v>

--- a/単体・総合テスト/単・結テスト指示書.xlsx
+++ b/単体・総合テスト/単・結テスト指示書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8B26D-DE48-4470-9542-A46D5E85C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA6133F-2927-45E0-A183-2E02011ADD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="1705">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -24250,13 +24250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン済み</t>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>右上のMy pageを押す</t>
     <rPh sb="0" eb="2">
       <t>ミギウエ</t>
@@ -24290,6 +24283,439 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のやることの入力欄に文字を入力し、「投稿する」ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームと一緒にカレンダー右側に表示される</t>
+    <rPh sb="7" eb="9">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーの日付をクリックする</t>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックした日に投稿があればカレンダー右側に表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーの月の横の三角ボタンを押す</t>
+    <rPh sb="6" eb="7">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月は移動し、土は青色の日付になる</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月は移動し、日曜、祝日は赤色の日付になる</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページに移行し、右上のmain pageを押す</t>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上のmain pageを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしメインページ表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしマイページ表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページに表示されている過去の投稿の右にある「削除」ボタン押す</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除していいか確認あり、OKで削除される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページに表示されている過去の投稿の右にある「削除」ボタン押し、OK押す</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の投稿のカレンダーマーク押し、年月を選択し、検索押す</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ネンツキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その月に投稿した内容が表示される</t>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力のまま確認するを押す</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力のエラー表示が赤字で入力欄の下に表示される</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス欄に適当に＠抜けたアドレス入力し確認するを押す</t>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「正しいメールアドレスを入力してください」と赤字で表示される</t>
+    <rPh sb="22" eb="24">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード欄に半角英数字、ハイフン、アットマーク以外の文字を入れ確認するボタンを押す</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワードは半角英数字、-、＠のみ使用可能です」と赤字で表示される</t>
+    <rPh sb="26" eb="28">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインページの右上から登録画面表示</t>
+    <rPh sb="8" eb="10">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面から戻るボタンで登録画面表示</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した値が表示されること確認し、編集もできること確認</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した値が表示され、編集もできる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -24983,7 +25409,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -24992,7 +25418,7 @@
     <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="4" customWidth="1"/>
@@ -25487,65 +25913,233 @@
         <v>1671</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>1673</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>1674</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1675</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="C19" s="2" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>1676</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" ht="56.25">
+      <c r="B20" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="E20" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1677</v>
+      </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" ht="37.5">
+      <c r="B21" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1679</v>
+      </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" ht="37.5">
+      <c r="B22" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1681</v>
+      </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" ht="37.5">
+      <c r="B23" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1681</v>
+      </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" ht="37.5">
+      <c r="B24" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1685</v>
+      </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" ht="56.25">
+      <c r="B25" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1691</v>
+      </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" ht="37.5">
+      <c r="B26" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1692</v>
+      </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" ht="37.5">
+      <c r="B27" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1695</v>
+      </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" ht="37.5">
+      <c r="B28" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1697</v>
+      </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" ht="56.25">
+      <c r="B29" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1699</v>
+      </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" ht="37.5">
+      <c r="B30" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1703</v>
+      </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11">

--- a/単体・総合テスト/単・結テスト指示書.xlsx
+++ b/単体・総合テスト/単・結テスト指示書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9CCC0B-9E3D-428B-AE11-71308236D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F808E-C8D9-4762-96B3-681C2C3C2B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="155">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -99,27 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>0-6</t>
-  </si>
-  <si>
-    <t>0-7</t>
-  </si>
-  <si>
-    <t>0-8</t>
-  </si>
-  <si>
     <t>ログイン画面表示</t>
     <rPh sb="4" eb="8">
       <t>ガメンヒョウジ</t>
@@ -137,19 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0-9</t>
-  </si>
-  <si>
-    <t>0-10</t>
-  </si>
-  <si>
-    <t>0-11</t>
-  </si>
-  <si>
-    <t>0-12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面の一番右上を見る</t>
     <rPh sb="7" eb="9">
       <t>イチバン</t>
@@ -1157,6 +1123,473 @@
       <t>トウロク</t>
     </rPh>
     <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面が表示されている</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示のニックネームを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示のニックネームを確認する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したニックネームが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインページへボタン押す</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>変更画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更画面が表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上のmypageのリンク押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページに移行する</t>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームの欄見る</t>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントのニックネーム表示される</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄見る</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントのメアド表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの欄見る</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更確認画面から戻るボタンで変更画面が表示されている</t>
+    <rPh sb="0" eb="6">
+      <t>ヘンコウカクニンガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し登録内容と登録時間が追加されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録された内容と登録時間が追加されている</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更完了画面が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更内容と登録時間が追加されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに変更されたニックネームと登録時間が追加されている</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更されたニックネームと登録時間が追加されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更されたメールアドレスと登録時間が追加されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認しパスワードがハッシュ化されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録されたパスワードはハッシュ化されている</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに変更されたメールアドレスと登録時間が追加されている</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更されたパスワードがハッシュ化されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに変更されたパスワードはハッシュ化されている</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページボタンを押す</t>
+    <rPh sb="9" eb="10">
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1261,7 +1694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1307,9 +1740,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1593,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5D05C-A947-412D-8467-707785D53B24}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1651,22 +2081,22 @@
     </row>
     <row r="2" spans="1:11" ht="37.5">
       <c r="A2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
@@ -1680,22 +2110,22 @@
     </row>
     <row r="3" spans="1:11" ht="37.5">
       <c r="A3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -1709,22 +2139,22 @@
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="11" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
@@ -1738,19 +2168,19 @@
     </row>
     <row r="5" spans="1:11" s="16" customFormat="1" ht="93.75">
       <c r="A5" s="11" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
@@ -1765,19 +2195,19 @@
     </row>
     <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="11" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -1791,22 +2221,22 @@
     </row>
     <row r="7" spans="1:11" ht="75">
       <c r="A7" s="11" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1820,22 +2250,22 @@
     </row>
     <row r="8" spans="1:11" ht="75">
       <c r="A8" s="11" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -1849,22 +2279,22 @@
     </row>
     <row r="9" spans="1:11" ht="93.75">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>11</v>
@@ -1878,22 +2308,22 @@
     </row>
     <row r="10" spans="1:11" ht="93.75">
       <c r="A10" s="11" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
@@ -1907,22 +2337,22 @@
     </row>
     <row r="11" spans="1:11" ht="75">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>11</v>
@@ -1934,24 +2364,24 @@
       <c r="J11" s="5"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" s="18" customFormat="1" ht="93.75">
-      <c r="A12" s="17" t="s">
-        <v>24</v>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="93.75">
+      <c r="A12" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>11</v>
@@ -1965,22 +2395,22 @@
     </row>
     <row r="13" spans="1:11" ht="93.75">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>11</v>
@@ -1993,20 +2423,23 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="75">
+      <c r="A14" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -2019,20 +2452,23 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="93.75">
+      <c r="A15" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>11</v>
@@ -2045,20 +2481,23 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="93.75">
+      <c r="A16" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>11</v>
@@ -2070,21 +2509,24 @@
       <c r="J16" s="5"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" ht="75">
+    <row r="17" spans="1:11" ht="75">
+      <c r="A17" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>11</v>
@@ -2095,321 +2537,891 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="1:11">
+      <c r="A18" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="56.25">
+      <c r="A20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="37.5">
+      <c r="A21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="37.5">
+      <c r="A22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="37.5">
+      <c r="A23" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="37.5">
+      <c r="A24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="56.25">
+      <c r="A25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="37.5">
+      <c r="A26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="37.5">
+      <c r="A27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="37.5">
+      <c r="A28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="56.25">
+      <c r="A29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="37.5">
+      <c r="A30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="37.5">
+      <c r="A32" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="37.5">
+      <c r="A34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="56.25">
+      <c r="A35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="37.5">
+      <c r="A36" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="37.5">
+      <c r="B38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="37.5">
+      <c r="B39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="37.5">
+      <c r="B41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="37.5">
+      <c r="B44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="37.5">
+      <c r="B45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" ht="56.25">
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="2:11" ht="37.5">
-      <c r="B21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:11" ht="37.5">
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="2:11" ht="37.5">
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="2:11" ht="37.5">
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="2:11" ht="56.25">
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="G45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="56.25">
+      <c r="B46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="2:11" ht="37.5">
-      <c r="B26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="37.5">
+      <c r="B47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="2:11" ht="37.5">
-      <c r="B27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="2:11" ht="37.5">
-      <c r="B28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="2:11" ht="56.25">
-      <c r="B29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="2:11" ht="37.5">
-      <c r="B30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="2:11" ht="37.5">
-      <c r="B32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" ht="37.5">
-      <c r="B34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" ht="56.25">
-      <c r="B35" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>97</v>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="37.5">
+      <c r="B48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="56.25">
+      <c r="B49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="56.25">
+      <c r="B50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/単体・総合テスト/単・結テスト指示書.xlsx
+++ b/単体・総合テスト/単・結テスト指示書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F808E-C8D9-4762-96B3-681C2C3C2B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD072C-B67A-435B-AA94-C9C98E9CA0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="201">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -1593,6 +1593,341 @@
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントのニックネームとメールアドレスが表示されている</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示内容を見る</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上のMainpageのボタン押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面</t>
+    <rPh sb="0" eb="6">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面に移行</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認するボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面へ移行</t>
+    <rPh sb="0" eb="6">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除完了画面に移行</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認しアカウントが削除されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから削除されてる</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB接続できない状態で削除するを押す</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時にDBと接続できないなどの時エラーが発生したためアカウント削除ができません。と表示される</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB接続できない状態で変更するを押す</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時にDBと接続できないなどの時エラーが発生したためアカウント変更できません。と表示される</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除完了画面</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除完了画面が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインページへボタンを押す</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインページに移行</t>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
 </sst>
 </file>
@@ -2023,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5D05C-A947-412D-8467-707785D53B24}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51:I51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3089,6 +3424,9 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="37.5">
+      <c r="A38" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
@@ -3113,6 +3451,9 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="37.5">
+      <c r="A39" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>88</v>
       </c>
@@ -3137,6 +3478,9 @@
       </c>
     </row>
     <row r="40" spans="1:11">
+      <c r="A40" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>130</v>
       </c>
@@ -3161,6 +3505,9 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="37.5">
+      <c r="A41" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>130</v>
       </c>
@@ -3185,6 +3532,9 @@
       </c>
     </row>
     <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>130</v>
       </c>
@@ -3209,6 +3559,9 @@
       </c>
     </row>
     <row r="43" spans="1:11">
+      <c r="A43" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>130</v>
       </c>
@@ -3233,6 +3586,9 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="37.5">
+      <c r="A44" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="B44" s="3" t="s">
         <v>130</v>
       </c>
@@ -3257,6 +3613,9 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="37.5">
+      <c r="A45" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>130</v>
       </c>
@@ -3281,6 +3640,9 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="56.25">
+      <c r="A46" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>130</v>
       </c>
@@ -3305,6 +3667,9 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="37.5">
+      <c r="A47" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>130</v>
       </c>
@@ -3329,6 +3694,9 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="37.5">
+      <c r="A48" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>141</v>
       </c>
@@ -3352,7 +3720,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="56.25">
+    <row r="49" spans="1:9" ht="56.25">
+      <c r="A49" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>141</v>
       </c>
@@ -3376,7 +3747,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="56.25">
+    <row r="50" spans="1:9" ht="56.25">
+      <c r="A50" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>141</v>
       </c>
@@ -3400,7 +3774,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="1:9">
+      <c r="A51" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>141</v>
       </c>
@@ -3421,6 +3798,249 @@
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="56.25">
+      <c r="A52" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="37.5">
+      <c r="A53" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="37.5">
+      <c r="A58" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="75">
+      <c r="A59" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/単体・総合テスト/単・結テスト指示書.xlsx
+++ b/単体・総合テスト/単・結テスト指示書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD072C-B67A-435B-AA94-C9C98E9CA0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B781B564-7EF3-4099-8207-8EB86597454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="199">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -361,19 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist_confirm.php」と入力する。</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
@@ -413,19 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete_confirm.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete_complete.php」と入力する。</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
@@ -664,16 +638,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>右上のmain pageを押す</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインしメインページ表示</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
@@ -1096,22 +1060,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録時にDBと接続できないなどの時エラーが発生したためアカウント登録できません。と表示される</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB接続できない状態で登録するを押す</t>
     <rPh sb="2" eb="4">
       <t>セツゾク</t>
@@ -1204,9 +1152,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -1453,79 +1398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBのuser_data確認し変更内容と登録時間が追加されてること確認</t>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>トウロクジカン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBに変更されたニックネームと登録時間が追加されている</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>トウロクジカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBのuser_data確認し変更されたニックネームと登録時間が追加されてること確認</t>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>トウロクジカン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBのuser_data確認し変更されたメールアドレスと登録時間が追加されてること確認</t>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>トウロクジカン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DBのuser_data確認しパスワードがハッシュ化されてること確認</t>
     <rPh sb="12" eb="14">
       <t>カクニン</t>
@@ -1549,19 +1421,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBに変更されたメールアドレスと登録時間が追加されている</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>トウロクジカン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DBのuser_data確認し変更されたパスワードがハッシュ化されてること確認</t>
     <rPh sb="12" eb="14">
       <t>カクニン</t>
@@ -1767,25 +1626,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録時にDBと接続できないなどの時エラーが発生したためアカウント削除ができません。と表示される</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB接続できない状態で変更するを押す</t>
     <rPh sb="2" eb="4">
       <t>セツゾク</t>
@@ -1802,25 +1642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録時にDBと接続できないなどの時エラーが発生したためアカウント変更できません。と表示される</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除完了画面</t>
     <rPh sb="0" eb="4">
       <t>サクジョカンリョウ</t>
@@ -1927,7 +1748,144 @@
     <t>58</t>
   </si>
   <si>
-    <t>59</t>
+    <t>test5@mail.comとtest5でログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2@mail.comとtest2でログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のやることの入力欄に勉強するを入力し、「投稿する」ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時にDBと接続できないなどの時データベースに接続できませんでした。時間をおいて再度お試しください。と表示される</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更されたニックネームが記載されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更されたメールアドレスとが記載されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに変更されたメールアドレスが記載されている</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに変更されたニックネームが記載されている</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更時にDBと接続できないなどの時データベースに接続できませんでした。時間をおいて再度お試しください。と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除時にDBと接続できないなどの時データベースに接続できませんでした。時間をおいて再度お試しください。と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2075,9 +2033,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2358,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5D05C-A947-412D-8467-707785D53B24}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2376,7 +2332,7 @@
     <col min="8" max="8" width="9.25" style="3" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" ht="18">
@@ -2416,7 +2372,7 @@
     </row>
     <row r="2" spans="1:11" ht="37.5">
       <c r="A2" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -2436,16 +2392,20 @@
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4">
+        <v>45956</v>
+      </c>
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="37.5">
       <c r="A3" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -2465,16 +2425,20 @@
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>45956</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -2494,16 +2458,20 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>45956</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="16" customFormat="1" ht="93.75">
       <c r="A5" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -2517,20 +2485,26 @@
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>45956</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -2544,19 +2518,26 @@
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F6" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>45956</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="75">
       <c r="A7" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -2576,16 +2557,20 @@
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>45956</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="75">
+    <row r="8" spans="1:11" ht="93.75">
       <c r="A8" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -2605,16 +2590,20 @@
       <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>45956</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="93.75">
       <c r="A9" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -2634,16 +2623,20 @@
       <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>45956</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="93.75">
+    <row r="10" spans="1:11" ht="75">
       <c r="A10" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -2663,16 +2656,20 @@
       <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>45956</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="75">
+    <row r="11" spans="1:11" ht="93.75">
       <c r="A11" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -2692,16 +2689,20 @@
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>45956</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="93.75">
+    <row r="12" spans="1:11" ht="75">
       <c r="A12" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -2721,16 +2722,20 @@
       <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>45956</v>
+      </c>
       <c r="I12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="93.75">
       <c r="A13" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -2750,16 +2755,20 @@
       <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>45956</v>
+      </c>
       <c r="I13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="75">
+    <row r="14" spans="1:11" ht="93.75">
       <c r="A14" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -2779,16 +2788,20 @@
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>45956</v>
+      </c>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="93.75">
+    <row r="15" spans="1:11" ht="75">
       <c r="A15" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -2797,180 +2810,208 @@
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="93.75">
-      <c r="A16" s="11" t="s">
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="56.25">
+      <c r="A18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="37.5">
+      <c r="A19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="37.5">
+      <c r="A20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="75">
-      <c r="A17" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="56.25">
-      <c r="A20" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>45956</v>
+      </c>
       <c r="I20" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="37.5">
       <c r="A21" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>49</v>
@@ -2978,279 +3019,329 @@
       <c r="G21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>45956</v>
+      </c>
       <c r="I21" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="37.5">
       <c r="A22" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="56.25">
+      <c r="A23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="37.5">
-      <c r="A23" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>45956</v>
+      </c>
       <c r="I23" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="37.5">
       <c r="A24" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>45956</v>
+      </c>
       <c r="I24" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J24" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="56.25">
+    <row r="25" spans="1:11" ht="37.5">
       <c r="A25" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>45956</v>
+      </c>
       <c r="I25" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="37.5">
       <c r="A26" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>45956</v>
+      </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J26" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="37.5">
+    <row r="27" spans="1:11" ht="56.25">
       <c r="A27" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4">
+        <v>45956</v>
+      </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="37.5">
       <c r="A28" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>45956</v>
+      </c>
       <c r="I28" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J28" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="56.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>45956</v>
+      </c>
       <c r="I29" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="37.5">
       <c r="A30" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4">
+        <v>45956</v>
+      </c>
       <c r="I30" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>78</v>
@@ -3258,791 +3349,907 @@
       <c r="G31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4">
+        <v>45956</v>
+      </c>
       <c r="I31" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="37.5">
       <c r="A32" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4">
+        <v>45956</v>
+      </c>
       <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J32" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="75">
       <c r="A33" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4">
+        <v>45956</v>
+      </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="37.5">
       <c r="A34" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" ht="56.25">
-      <c r="A35" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <v>45956</v>
+      </c>
       <c r="I35" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="37.5">
       <c r="A36" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="37.5">
+      <c r="A37" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="37.5">
-      <c r="A38" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4">
+        <v>45956</v>
+      </c>
       <c r="I38" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="37.5">
       <c r="A39" s="11" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4">
+        <v>45956</v>
+      </c>
       <c r="I39" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J39" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="11" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="37.5">
-      <c r="A41" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>45956</v>
+      </c>
       <c r="I41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="J41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="37.5">
       <c r="A42" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4">
+        <v>45956</v>
+      </c>
       <c r="I42" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="J42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="37.5">
       <c r="A43" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4">
+        <v>45956</v>
+      </c>
       <c r="I43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="37.5">
+      <c r="J43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="56.25">
       <c r="A44" s="11" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4">
+        <v>45956</v>
+      </c>
       <c r="I44" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J44" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="37.5">
       <c r="A45" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4">
+        <v>45956</v>
+      </c>
       <c r="I45" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J45" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="56.25">
       <c r="A46" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="56.25">
+      <c r="A47" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="56.25">
+      <c r="A48" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="75">
+      <c r="A50" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="37.5">
+      <c r="A51" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="37.5">
+      <c r="A56" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="75">
+      <c r="A57" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="37.5">
-      <c r="A47" s="11" t="s">
+      <c r="B57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="37.5">
-      <c r="A48" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="56.25">
-      <c r="A49" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="56.25">
-      <c r="A50" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="56.25">
-      <c r="A52" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="37.5">
-      <c r="A53" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="B58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="37.5">
-      <c r="A58" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4">
+        <v>45956</v>
+      </c>
       <c r="I58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="75">
-      <c r="A59" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="J58" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K58" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
